--- a/data/proc/scrap_lists/2010_2014/09141.xlsx
+++ b/data/proc/scrap_lists/2010_2014/09141.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>id_matched</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>estado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id_matched</t>
         </is>
       </c>
     </row>
@@ -496,10 +496,14 @@
           <t>0914120140029</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0914120140029</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,10 +531,14 @@
           <t>0914120140032</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0914120140032</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,10 +566,14 @@
           <t>0914120140086</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0914120140086</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,10 +601,14 @@
           <t>0914120140153</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0914120140153</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -620,10 +636,14 @@
           <t>0914120140159</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0914120140159</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,10 +671,14 @@
           <t>0914120140192</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0914120140192</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,10 +706,14 @@
           <t>0914120140215</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0914120140215</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -713,10 +741,14 @@
           <t>0914120140228</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0914120140228</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -744,10 +776,14 @@
           <t>0914120140273</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0914120140273</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -775,10 +811,14 @@
           <t>0914120140290</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0914120140290</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -806,10 +846,14 @@
           <t>0914120140295</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0914120140295</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -837,10 +881,14 @@
           <t>0914120140323</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0914120140323</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -868,10 +916,14 @@
           <t>0914120140376</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0914120140376</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -899,10 +951,14 @@
           <t>0914120140380</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0914120140380</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -930,10 +986,14 @@
           <t>0914120140430</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0914120140430</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -961,10 +1021,14 @@
           <t>0914120140432</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0914120140432</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -992,10 +1056,14 @@
           <t>0914120140434</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0914120140434</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1023,10 +1091,14 @@
           <t>0914120140462</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0914120140462</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1054,10 +1126,14 @@
           <t>0914120140496</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0914120140496</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1085,10 +1161,14 @@
           <t>0914120140538</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0914120140538</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1116,10 +1196,14 @@
           <t>0914120140600</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0914120140600</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1147,10 +1231,14 @@
           <t>0914120140647</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0914120140647</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1178,10 +1266,14 @@
           <t>0914120140739</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0914120140739</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1209,10 +1301,14 @@
           <t>0914120140757</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0914120140757</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1240,10 +1336,14 @@
           <t>0914120140767</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0914120140767</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1271,10 +1371,14 @@
           <t>0914120140769</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0914120140769</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1302,10 +1406,14 @@
           <t>0914120140779</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0914120140779</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1333,10 +1441,14 @@
           <t>0914120140781</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0914120140781</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1364,10 +1476,14 @@
           <t>0914120140783</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0914120140783</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1395,10 +1511,14 @@
           <t>0914120140821</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0914120140821</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1426,10 +1546,14 @@
           <t>0914120140823</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0914120140823</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1457,10 +1581,14 @@
           <t>0914120140825</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0914120140825</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1488,10 +1616,14 @@
           <t>0914120140829</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0914120140829</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1519,10 +1651,14 @@
           <t>0914120140836</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0914120140836</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1550,10 +1686,14 @@
           <t>0914120140838</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0914120140838</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1581,10 +1721,14 @@
           <t>0914120140840</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0914120140840</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1612,10 +1756,14 @@
           <t>0914120140844</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0914120140844</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1643,10 +1791,14 @@
           <t>0914120140845</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0914120140845</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1674,10 +1826,14 @@
           <t>0914120140847</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0914120140847</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1705,10 +1861,14 @@
           <t>0914120140855</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0914120140855</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1736,10 +1896,14 @@
           <t>0914120140856</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0914120140856</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1767,10 +1931,14 @@
           <t>0914120140861</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0914120140861</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1798,10 +1966,14 @@
           <t>0914120140881</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0914120140881</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1829,10 +2001,14 @@
           <t>0914120140882</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0914120140882</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1860,10 +2036,14 @@
           <t>0914120140897</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0914120140897</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1891,10 +2071,14 @@
           <t>0914120140904</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0914120140904</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1922,10 +2106,14 @@
           <t>0914120140906</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0914120140906</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1953,10 +2141,14 @@
           <t>0914120140908</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0914120140908</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
